--- a/biology/Botanique/Donald_Joseph_Boomer_Killick/Donald_Joseph_Boomer_Killick.xlsx
+++ b/biology/Botanique/Donald_Joseph_Boomer_Killick/Donald_Joseph_Boomer_Killick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donald Joseph Boomer Killick (1926-2008) est un botaniste sud-africain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donald Joseph Boomer Killick (1926-2008) est un botaniste sud-africain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1940 à 1943, il fréquente le Maritzburg College. De 1945 à 1950, il fréquente l'Université du Natal, où il obtient en 1950 une maîtrise en sciences intitulée An account of the plant ecology of the Table Mountain area of Pietermaritzburg, Natal. De 1954 à 1957, et de 1969 à 1971, il est agent de liaison sud-africain au Jardins botaniques royaux de Kew. En 1957, il obtient son doctorat An account of the plant ecology of the Cathedral Peak area of the Natal Drakensberg.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1963 : An Account of the Plant Ecology of the Cathedral Peak Area of the Natal Drakensberg. Nº 34 de Bot. Survey memoir. Editor Govt. Printer, 178 pages
 1972 : Register of Plant Taxonomic and Related Research Projects in Africa. Editor Bot. Res. Institute, 111 pages
@@ -578,17 +594,53 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1966 : élu président de la Société de biologie d'Afrique du Sud
-1975 : président du Comité international des spermatophytes
-Éponymes
-Genres :
-(Lamiaceae) Killickia Bräuchler, Heubl &amp; Doroszenko[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1966 : élu président de la Société de biologie d'Afrique du Sud
+1975 : président du Comité international des spermatophytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Donald_Joseph_Boomer_Killick</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donald_Joseph_Boomer_Killick</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éponymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genres :
+(Lamiaceae) Killickia Bräuchler, Heubl &amp; Doroszenko
 Espèces :
-(Cyperaceae) Carex killickii Nelmes[3]
-(Poaceae) Festuca killickii Kenn.-O'Byrne[4]
-L'abréviation « Killick » est utilisée pour désigner Donald Joseph Boomer Killick comme une autorité en matière de description scientifique et de classification des plantes[5].
+(Cyperaceae) Carex killickii Nelmes
+(Poaceae) Festuca killickii Kenn.-O'Byrne
+L'abréviation « Killick » est utilisée pour désigner Donald Joseph Boomer Killick comme une autorité en matière de description scientifique et de classification des plantes.
 </t>
         </is>
       </c>
